--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R495abb99d7824956"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R7f1c8252fc834a13"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R7989fea07dbe4423"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R6b45cc3ef6b94060"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -11549,16 +11549,184 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>GO338045399</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CICERO TAVARES SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44848</x:v>
+          <x:t>GO338054394</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLAUDIA SOUZA DE OLIVEIRA PEREIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45184</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>99999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLAUDIA12648@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>YAN MARCO DE MELO BARBOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74805100</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338039885</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLAUDIO CEZAR MANEDIO DA SILVA FACUNDES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44655</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62992399300</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLAUDIOCEZAR023@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GABRIELA NUNES DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 76650000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338034277</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLEIA REJANE PACIFICO DA CONCEIÇAO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44459</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>94981176523</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLEIAPACIFICO@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RAYANI FERNANDA BEATRIZ RUFINO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74415550</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338040699</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLELMA AGOSTON</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44685</x:v>
       </x:c>
       <x:c t="inlineStr">
         <x:is>
@@ -11567,12 +11735,1300 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>64992936378</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CICEROTAVARESSILVA@GMAIL.COM</x:t>
+          <x:t>62994538208</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLELMAAGOSTON@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAYANE KATELLY BRITO NASCIMENTO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74491630</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338032621</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLEYTON CAMARGO ESPERANDIR</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44404</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62991217537</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLEYTON.C@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AMOR SAUDE GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74510030</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492013897</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CONCEIÇÃO APARECIDA LUIZ DE OLIVEIRA ROMUALDO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45034</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61996083034</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CONCEICAOROMUALDOLUIZ@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RAFAELA ALVES LINS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73801480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551001202</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA CAROLINE SALES CORREA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44760</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992897589</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CORREA8888@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RAIMUNDO FRANCISCO NASCIMENTO DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75690000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338040773</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CRISTIANE ALVES DA CUNHA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44687</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62992702944</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CRISTIANE_CUNHA95@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JUBINAN BEZERRA GUEDES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74643050</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338038461</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CRISTIANE RIBEIRO RODRIGUES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44607</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62991776111</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CRISTIANERIBEIRORODRIGUESAT@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDILEUSA APARECIDA DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74494430</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338047869</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUANA CRISTINA MORAIS BORGES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44950</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62998566840</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CRISTINALUANA848@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74410155</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338045748</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CÉLIO VANDERLEY ALVES VIANA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44860</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62992355828</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CVAVIANA@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LANNA RAYSSA LOPES SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74360070</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551001143</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAIANE MARTINS DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44755</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992443211</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAIANE.MSANTOS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WILLIAN SILVA RODRIGUES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75689474</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338005074</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DALVA DUARTE BEZERRA DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>43392</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CAIXA ECONOMICA FEDERAL</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62985315853</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DALVADUARTE026@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JESSICA RUFINO DE ASSIS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74513101</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492013175</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DALVA PEREIRA LIMA ALVES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44963</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>38998766249</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DALVAPEREIRALIMAA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CARTAO DE FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73752411</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492003890</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANIELA FRANCISCO DE JESUS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44452</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61981412003</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANI.FRAN@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA KAROLINA PINTO DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73807295</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551005186</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANIELA APARECIDA DIAS DOS REIS SOUSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45054</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64993171674</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANIELAREIS@GMAIL.COM.BR</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LENE SARA BARBOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75689000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551000274</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANIELA SOUZA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44736</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64993348050</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANIELASOUZASILVA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUANA ROCHA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75680536</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551004942</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANIELE SANTOS DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45040</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>92992235412</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANIELESANTOSDS1305@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75686036</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338053919</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANIEL TRISTÃO FERNANDES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45169</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62983117675</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANIFERNANDES1407@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74305520</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492012103</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANTE ALIGUIERI ARAUJO JATOBA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44868</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61996806970</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANTEGUIERIRAUJATOBA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLÍNICA AMOR SAÚDE FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73807290</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492011389</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANUSE XAVIER SANTIAGO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44824</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61998277009</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANUSEXAVIER@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLÍNICA AMOR SAÚDE FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73805256</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338054115</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DARLYN GABRIELA DA SILVA SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45175</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62982051990</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DARLYNBONI@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARIA BETANIA DA CRUZ SOUZA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74045100</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492001224</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DARINKA SANCHEZ OITIZ</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44349</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61999815751</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DARYNKYT86@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WANDERSON OLIVEIRA DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73805271</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551005935</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAISY ENI MORAIS DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45118</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61985499973</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DASYGAJGH65@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUIGY PEREIRA MAURO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75680025</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338040731</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAVI MARQUES DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44685</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62992467582</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAVITRUCKSERVICE@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RAYANI FERNANDA BEATRIZ RUFINO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74369872</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551002723</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JOANA DARC BATISTA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44455</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992918848</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAYANASANTOSGUIMARAES@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARIANA GONÇALVES DAVID RIOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74356700</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338034089</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAYANE APARECIDA DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44453</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62984477449</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAYANEAPARECIDA2@GMAIL.COM</x:t>
         </x:is>
       </x:c>
       <x:c t="inlineStr">
@@ -11588,33 +13044,89 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>CEP 75533150</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338054394</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLAUDIA SOUZA DE OLIVEIRA PEREIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45184</x:v>
+          <x:t>CEP 74590370</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338010890</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DEBORA CRISTINA FERREIRA ALMEIDA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>43619</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CAIXA ECONOMICA FEDERAL</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62981658470</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DEBORACRISTINAFALMEIDA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>BRUNA LETICIA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74553500</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338051579</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DÉBORA DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45086</x:v>
       </x:c>
       <x:c t="inlineStr">
         <x:is>
@@ -11623,17 +13135,17 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>99999999999</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLAUDIA12648@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>YAN MARCO DE MELO BARBOSA</x:t>
+          <x:t>62992544195</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DEBORASILVA234@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAYANE KATELLY BRITO NASCIMENTO</x:t>
         </x:is>
       </x:c>
       <x:c s="9">
@@ -11644,4375 +13156,2695 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
+          <x:t>CEP 74510040</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551003534</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ILMO PERES DE MORAIS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44931</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992560533</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DEBYNHAPERES2@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LENE SARA BARBOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75680588</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338043528</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JACIRA LOMBRE SOUZA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44783</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62982410602</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DENISE@JCLLOGISTICA.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LORRAINE ESTER DE SOUZA CALIL</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74493680</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338035075</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DEUSIRENE DE SOUZA E SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44488</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64981320327</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DEUSIRENEESOUZA@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ITANIRA DE JESUS SENA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 76195000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551001799</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DHRYELLEYN GLAYSSYE SANTOS DE LIMA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44805</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992929313</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DHRYELLEYN.GLAYSSYE@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75690000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492002947</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DHYEZIFI DE OLIVEIRA MAGALHAES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44411</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61996482249</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DHYEZIFI7584@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ROSANA GUILHERME BARBOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73805125</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338052182</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DOMINGOS MORAES PRETO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45108</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62991972118</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DOMIGOSMORAESPRETO@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ERIKA BARBOSA SANTOS SCHMIDT</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74590700</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551002312</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DOUGLAS VALERIO MARTINS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44833</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992994991</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DOUGLASVALERIO1@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75689225</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338017664</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ADRIANA SANÇÃO SOARES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45149</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62992086004</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DRYSSAMP@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ADRIANA SANÇÃO SOARES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74440510</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551002430</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDGAR APARECIDO ALVES TRINDADE</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44844</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992695713</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDG_TRINDADE@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75694234</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492015545</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDIVIGES LACERDA DE QUEIROZ</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45210</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61994411228</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDIERGES@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CARTAO DE FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73801480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338047278</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDILSON RAMOS DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44925</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>BRADESCO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64984375947</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDILSONRAMOS_345@GMAIL.COM.BR</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAYANE KATELLY BRITO NASCIMENTO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75960000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338045208</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDIR ROSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44840</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62999986875</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDIRROSA72@GAMIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>PEDRO GUSTAVO MADUREIRA HORTA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74593081</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492007171</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDIVANIA NEVES DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44620</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61998656094</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDIVAMJUY@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DEIBIA PEREIRA DE OLIVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73813320</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338053110</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDLAIR MIRANDA DE FIGUEREDO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45142</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62992178134</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDLAIRMIRANDA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA RAISSA DA SILVA BATISTA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74484431</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338044901</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDMILSON ALVES DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44830</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62986021419</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDMILSONPABLO01@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74650060</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338045180</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDUARDO FRANCISCO DE MOURA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44840</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62982307026</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDU.MOURA1610@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCAS DA SILVA ARAÚJO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75383408</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338051084</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDUARDO DA SILVA FERREIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45065</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62999243667</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDUARDOSF86@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LANNA RAYSSA LOPES SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74305110</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492012560</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDVALDO DE ALCANTARA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44901</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61992321577</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDVALDECANTARA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARIA SONIA ALVES DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73752010</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492015060</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MANOEL DE SOUSA MARINHOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45155</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61999466886</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EHHERUHFUOHREAUFU@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANIELLE TAVARES VIEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73801480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551005258</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>HOMEILTON JOSE DE OLIVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45057</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992070860</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EINSTEIN4001@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75686018</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338019627</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELENICE CRISTIANE FEITOSA COUTINHO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44895</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62993203676</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELENICEF3EITOSACOUTINHO@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GABRIELA NUNES DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74405030</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338017470</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELIANE TAVARES FERREIRA SOUZA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>43875</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62984930446</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>eliane151269@gmail.com</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LILIAN COELHO REZENDE DOURADO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74560390</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551007136</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MANOEL RANIEL LIMA DO NASCIMENTO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45229</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>66999321321</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELIANESANTOSS586@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75640000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338041427</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELIEIDE ROSA MAGALHAES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44712</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62985618486</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELIEIDE_ROSA@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JOSÉ EDUARDO PEDRO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74685100</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338046518</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELIEUSA NOBRE DAMACENA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44888</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62991281176</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELIEUSASILVA0602@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LORRAINE ESTER DE SOUZA CALIL</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 76220000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338053810</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELIEZIO FRANCISCO DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45166</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62995709559</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELIEZIOFRANCISCODASILVA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ERIKA BARBOSA SANTOS SCHMIDT</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74510040</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492015156</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELINEIA PEREIRA DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45167</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61998023788</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELINEIAPEREIRASANTOS82@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RAFAELA ALVES LINS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73801480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492009481</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELISABETE SOARES DE OLIVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45240</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61994465401</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELISABETESOARESDE@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARLENE PEREIRA DOS SANTOS TORRES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73805271</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338049881</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELIZENY MARTINS DO CARMO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45019</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62994792446</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELIZENYHS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LANNA RAYSSA LOPES SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74913110</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492012847</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELLEN MENDES GOMES DE OLIVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61996692116</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELLENVEIRA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLÍNICA 2</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73808080</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338038285</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELMA BARBOSA DE SOUZA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44601</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62996176959</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELMASOUZA269@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GABRIELA SAMARA DE SOUZA CORREA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74371420</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492013530</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELOISA XAVIER DE SOUSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44993</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61996616550</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELOXAV@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>KAUANE DE SOUZA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73805271</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338019649</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELSA DA CONCEICAO SANTOS MACIEL</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>43958</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62993911188</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELSAMACIEL07@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>NAUANY FRANCA DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74565694</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551005203</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELSON LUIZ CANDIDO DE SOUZA FILHO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45055</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992296312</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELSON_LUIZCANDIDODESOUZAFILHO@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>KARLLOS HENRIQUE</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75692059</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338055684</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EMANUEL ALVES DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45229</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>99985164628</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EMANUELALVESDASILVA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JUBINAN BEZERRA GUEDES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74510040</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551003254</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EMANUELLY STEFFANY DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44896</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992794541</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EMANUELLYESTEFFNY99@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75690000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492008464</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EMIVAL GONÇALVES DE SOUSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44683</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61999211055</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EMIVALGONCALVESDSS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GUSTAVO SANTANA VIEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73813190</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492012101</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDILEUSA MORAIS FERREIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44868</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61993986584</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ENINHA12@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUDMILA VICTÓRIA NUNES DA SILVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73755101</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551005449</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ERIK HENRIQUE OLIVEIRA DE JESUS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45071</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992192772</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ERIKBEST09@ICLOUD.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GIOVANNA CRYSTYNAH SOBRINHO MIRANDA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75680001</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492007103</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ERISVALDO ABREU SOUSA JUNIOR</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61994470210</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ERISVALDOABREU@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>PRISCILA ATHAYDE ANDRADE</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73807285</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551002169</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ARNOLDO RODRIGUES BRITO FILHO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44825</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64993473507</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ESTEFANIACBRITO@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75689491</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492011910</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ESTEVA CINTIA NUNES DE OLIVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44858</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61993690541</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ESTEVDS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GUSTAVO HENRIQUE SANTOS SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73752011</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338015616</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ESTHER CARDOSO DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>43795</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CAIXA ECONOMICA FEDERAL</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62999453446</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ESTHERCARDOSO2005@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GEAN LUCAS ANDRADE DE OLIVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74563270</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492009901</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EUDA PEREIRA DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44760</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61991428299</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EUDAPEREIRADASILVA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA CRISTINA BARBOSA OLIVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73751150</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338035701</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EUNICI FERREIRA DOS SANTOS LEITE</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44509</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62996915826</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EUNICEFERREIRAS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAYANE KATELLY BRITO NASCIMENTO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74463280</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492012995</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EUNICE DAS DORES SILVA DA ROCHA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44949</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61999818380</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EUNIOCHA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RAFAELA ALVES LINS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73802421</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551004830</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EURIVANIA CANDIDA TEIXEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45027</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992846500</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EURIVANIA-TEIXEIRA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FELIPE CAMPOS BATISTA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75696079</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338045668</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EVA COELHO DA CRUZ REZENDE</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44858</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62992109562</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EVA13LINDA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ERIKA BARBOSA SANTOS SCHMIDT</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
           <x:t>CEP 74805100</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338039885</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLAUDIO CEZAR MANEDIO DA SILVA FACUNDES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44655</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62992399300</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLAUDIOCEZAR023@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GABRIELA NUNES DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 76650000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338034277</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLEIA REJANE PACIFICO DA CONCEIÇAO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44459</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>94981176523</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLEIAPACIFICO@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RAYANI FERNANDA BEATRIZ RUFINO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74415550</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338040699</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLELMA AGOSTON</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44685</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62994538208</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLELMAAGOSTON@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAYANE KATELLY BRITO NASCIMENTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74491630</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338032621</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLEYTON CAMARGO ESPERANDIR</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44404</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991217537</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLEYTON.C@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AMOR SAUDE GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74510030</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492013897</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CONCEIÇÃO APARECIDA LUIZ DE OLIVEIRA ROMUALDO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45034</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61996083034</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CONCEICAOROMUALDOLUIZ@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RAFAELA ALVES LINS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73801480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551001202</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA CAROLINE SALES CORREA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44760</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992897589</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CORREA8888@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RAIMUNDO FRANCISCO NASCIMENTO DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75690000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338040773</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CRISTIANE ALVES DA CUNHA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44687</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62992702944</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CRISTIANE_CUNHA95@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JUBINAN BEZERRA GUEDES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74643050</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338038461</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CRISTIANE RIBEIRO RODRIGUES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44607</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991776111</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CRISTIANERIBEIRORODRIGUESAT@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDILEUSA APARECIDA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74494430</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338047869</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUANA CRISTINA MORAIS BORGES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44950</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62998566840</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CRISTINALUANA848@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74410155</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338045748</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CÉLIO VANDERLEY ALVES VIANA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44860</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62992355828</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CVAVIANA@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LANNA RAYSSA LOPES SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74360070</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551001143</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAIANE MARTINS DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44755</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992443211</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAIANE.MSANTOS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>WILLIAN SILVA RODRIGUES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75689474</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338005074</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DALVA DUARTE BEZERRA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>43392</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CAIXA ECONOMICA FEDERAL</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62985315853</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DALVADUARTE026@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JESSICA RUFINO DE ASSIS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74513101</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492013175</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DALVA PEREIRA LIMA ALVES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44963</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>38998766249</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DALVAPEREIRALIMAA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CARTAO DE FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73752411</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492003890</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANIELA FRANCISCO DE JESUS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44452</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61981412003</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANI.FRAN@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA KAROLINA PINTO DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73807295</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551005186</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANIELA APARECIDA DIAS DOS REIS SOUSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45054</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64993171674</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANIELAREIS@GMAIL.COM.BR</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LENE SARA BARBOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75689000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551000274</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANIELA SOUZA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44736</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64993348050</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANIELASOUZASILVA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUANA ROCHA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75680536</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551004942</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANIELE SANTOS DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45040</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>92992235412</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANIELESANTOSDS1305@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75686036</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492011560</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANIELLA DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44834</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61991655068</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANIELLASANTOS852@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ERICA VALE DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73750012</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338053919</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANIEL TRISTÃO FERNANDES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45169</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62983117675</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANIFERNANDES1407@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74305520</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492012103</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANTE ALIGUIERI ARAUJO JATOBA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44868</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61996806970</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANTEGUIERIRAUJATOBA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLÍNICA AMOR SAÚDE FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73807290</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492011389</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANUSE XAVIER SANTIAGO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44824</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61998277009</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANUSEXAVIER@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLÍNICA AMOR SAÚDE FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73805256</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338054115</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DARLYN GABRIELA DA SILVA SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45175</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62982051990</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DARLYNBONI@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA BETANIA DA CRUZ SOUZA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74045100</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492001224</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DARINKA SANCHEZ OITIZ</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44349</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61999815751</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DARYNKYT86@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>WANDERSON OLIVEIRA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73805271</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551005935</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAISY ENI MORAIS DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45118</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61985499973</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DASYGAJGH65@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUIGY PEREIRA MAURO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75680025</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338040731</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAVI MARQUES DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44685</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62992467582</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAVITRUCKSERVICE@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RAYANI FERNANDA BEATRIZ RUFINO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74369872</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551002723</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JOANA DARC BATISTA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44455</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992918848</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAYANASANTOSGUIMARAES@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIANA GONÇALVES DAVID RIOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74356700</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338034089</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAYANE APARECIDA DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44453</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62984477449</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAYANEAPARECIDA2@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SILVIA HELENA COELHO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74590370</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338010890</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DEBORA CRISTINA FERREIRA ALMEIDA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>43619</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CAIXA ECONOMICA FEDERAL</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62981658470</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DEBORACRISTINAFALMEIDA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>BRUNA LETICIA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74553500</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338051579</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DÉBORA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45086</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62992544195</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DEBORASILVA234@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAYANE KATELLY BRITO NASCIMENTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74510040</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551003534</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ILMO PERES DE MORAIS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44931</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992560533</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DEBYNHAPERES2@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LENE SARA BARBOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75680588</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338043528</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JACIRA LOMBRE SOUZA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44783</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62982410602</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DENISE@JCLLOGISTICA.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LORRAINE ESTER DE SOUZA CALIL</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74493680</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338035075</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DEUSIRENE DE SOUZA E SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44488</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64981320327</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DEUSIRENEESOUZA@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ITANIRA DE JESUS SENA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 76195000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551001799</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DHRYELLEYN GLAYSSYE SANTOS DE LIMA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44805</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992929313</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DHRYELLEYN.GLAYSSYE@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75690000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492002947</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DHYEZIFI DE OLIVEIRA MAGALHAES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44411</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61996482249</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DHYEZIFI7584@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ROSANA GUILHERME BARBOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73805125</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338052182</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DOMINGOS MORAES PRETO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45108</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991972118</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DOMIGOSMORAESPRETO@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ERIKA BARBOSA SANTOS SCHMIDT</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74590700</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551002312</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DOUGLAS VALERIO MARTINS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44833</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992994991</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DOUGLASVALERIO1@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75689225</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338017664</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ADRIANA SANÇÃO SOARES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45149</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62992086004</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DRYSSAMP@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ADRIANA SANÇÃO SOARES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74440510</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551002430</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDGAR APARECIDO ALVES TRINDADE</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44844</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992695713</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDG_TRINDADE@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75694234</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492015545</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDIVIGES LACERDA DE QUEIROZ</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45210</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61994411228</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDIERGES@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CARTAO DE FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73801480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338047278</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDILSON RAMOS DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44925</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>BRADESCO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64984375947</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDILSONRAMOS_345@GMAIL.COM.BR</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAYANE KATELLY BRITO NASCIMENTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75960000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338045208</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDIR ROSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44840</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62999986875</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDIRROSA72@GAMIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>PEDRO GUSTAVO MADUREIRA HORTA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74593081</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492007171</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDIVANIA NEVES DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44620</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61998656094</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDIVAMJUY@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DEIBIA PEREIRA DE OLIVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73813320</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338053110</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDLAIR MIRANDA DE FIGUEREDO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45142</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62992178134</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDLAIRMIRANDA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA RAISSA DA SILVA BATISTA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74484431</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338044901</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDMILSON ALVES DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44830</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62986021419</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDMILSONPABLO01@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74650060</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338045180</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDUARDO FRANCISCO DE MOURA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44840</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62982307026</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDU.MOURA1610@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCAS DA SILVA ARAÚJO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75383408</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338051084</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDUARDO DA SILVA FERREIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45065</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62999243667</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDUARDOSF86@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LANNA RAYSSA LOPES SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74305110</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492012560</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDVALDO DE ALCANTARA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44901</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61992321577</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDVALDECANTARA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA SONIA ALVES DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73752010</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492015060</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MANOEL DE SOUSA MARINHOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45155</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61999466886</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EHHERUHFUOHREAUFU@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANIELLE TAVARES VIEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73801480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551005258</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>HOMEILTON JOSE DE OLIVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45057</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992070860</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EINSTEIN4001@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75686018</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338019627</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELENICE CRISTIANE FEITOSA COUTINHO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44895</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62993203676</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELENICEF3EITOSACOUTINHO@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GABRIELA NUNES DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74405030</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338017470</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELIANE TAVARES FERREIRA SOUZA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>43875</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62984930446</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>eliane151269@gmail.com</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LILIAN COELHO REZENDE DOURADO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74560390</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551007136</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MANOEL RANIEL LIMA DO NASCIMENTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45229</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>66999321321</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELIANESANTOSS586@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75640000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338041427</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELIEIDE ROSA MAGALHAES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44712</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62985618486</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELIEIDE_ROSA@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JOSÉ EDUARDO PEDRO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74685100</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338046518</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELIEUSA NOBRE DAMACENA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44888</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991281176</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELIEUSASILVA0602@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LORRAINE ESTER DE SOUZA CALIL</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 76220000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338053810</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELIEZIO FRANCISCO DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45166</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62995709559</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELIEZIOFRANCISCODASILVA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ERIKA BARBOSA SANTOS SCHMIDT</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74510040</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492015156</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELINEIA PEREIRA DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45167</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61998023788</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELINEIAPEREIRASANTOS82@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RAFAELA ALVES LINS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73801480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492009481</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELISABETE SOARES DE OLIVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45240</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61994465401</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELISABETESOARESDE@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARLENE PEREIRA DOS SANTOS TORRES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73805271</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338049881</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELIZENY MARTINS DO CARMO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45019</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62994792446</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELIZENYHS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LANNA RAYSSA LOPES SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74913110</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492012847</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELLEN MENDES GOMES DE OLIVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44935</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61996692116</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELLENVEIRA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLÍNICA 2</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73808080</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338038285</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELMA BARBOSA DE SOUZA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44601</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62996176959</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELMASOUZA269@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GABRIELA SAMARA DE SOUZA CORREA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74371420</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492013530</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELOISA XAVIER DE SOUSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44993</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61996616550</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELOXAV@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>KAUANE DE SOUZA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73805271</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338019649</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELSA DA CONCEICAO SANTOS MACIEL</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>43958</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62993911188</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELSAMACIEL07@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>NAUANY FRANCA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74565694</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551005203</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELSON LUIZ CANDIDO DE SOUZA FILHO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45055</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992296312</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELSON_LUIZCANDIDODESOUZAFILHO@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>KARLLOS HENRIQUE</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75692059</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338055684</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EMANUEL ALVES DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45229</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>99985164628</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EMANUELALVESDASILVA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JUBINAN BEZERRA GUEDES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74510040</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551003254</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EMANUELLY STEFFANY DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44896</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992794541</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EMANUELLYESTEFFNY99@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75690000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492008464</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EMIVAL GONÇALVES DE SOUSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44683</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61999211055</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EMIVALGONCALVESDSS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GUSTAVO SANTANA VIEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73813190</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492012101</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDILEUSA MORAIS FERREIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44868</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61993986584</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ENINHA12@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUDMILA VICTÓRIA NUNES DA SILVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73755101</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551005449</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ERIK HENRIQUE OLIVEIRA DE JESUS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45071</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992192772</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ERIKBEST09@ICLOUD.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GIOVANNA CRYSTYNAH SOBRINHO MIRANDA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75680001</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492007103</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ERISVALDO ABREU SOUSA JUNIOR</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44617</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61994470210</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ERISVALDOABREU@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>PRISCILA ATHAYDE ANDRADE</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73807285</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551002169</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ARNOLDO RODRIGUES BRITO FILHO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44825</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64993473507</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ESTEFANIACBRITO@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75689491</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492011910</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ESTEVA CINTIA NUNES DE OLIVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44858</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61993690541</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ESTEVDS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GUSTAVO HENRIQUE SANTOS SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73752011</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338015616</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ESTHER CARDOSO DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>43795</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CAIXA ECONOMICA FEDERAL</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62999453446</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ESTHERCARDOSO2005@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GEAN LUCAS ANDRADE DE OLIVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74563270</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492009901</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EUDA PEREIRA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44760</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61991428299</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EUDAPEREIRADASILVA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA CRISTINA BARBOSA OLIVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73751150</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338035701</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EUNICI FERREIRA DOS SANTOS LEITE</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44509</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62996915826</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EUNICEFERREIRAS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAYANE KATELLY BRITO NASCIMENTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74463280</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492012995</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EUNICE DAS DORES SILVA DA ROCHA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44949</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61999818380</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EUNIOCHA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RAFAELA ALVES LINS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73802421</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551004830</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EURIVANIA CANDIDA TEIXEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45027</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992846500</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EURIVANIA-TEIXEIRA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FELIPE CAMPOS BATISTA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75696079</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338045668</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EVA COELHO DA CRUZ REZENDE</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44858</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62992109562</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EVA13LINDA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ERIKA BARBOSA SANTOS SCHMIDT</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74805100</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492012907</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EVARCY MOREIRA JUNIOR</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44942</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61992036911</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EVAUNIOR@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA SONIA ALVES DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73756018</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R724a495bbd0345ef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R127914a29baf4769"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -31097,62 +31097,6 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>GO338044453</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIO WANDERSON DA CONCEIÇÃO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44816</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62994324228</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>PLINKIN1936@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CARINA SALES AGOSTINHO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74425098</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
           <x:t>GO338050785</x:t>
         </x:is>
       </x:c>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R008fad279948439c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R2f3dfdc018c64384"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R2f3dfdc018c64384"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R5217679d6ad34b61"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rbe34985a44e24f10"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R0fa5acea7d3e476e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R9e680099eac149ce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R0d4af50ca3144253"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28640,62 +28640,6 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551004929</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>NURIA BARBOSA MARCAL</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45035</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992526686</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>NURIABARBOSAA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VITORIA RODRIGUES LOPES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75680045</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
           <x:t>GOIANIA CENTRO NORTE</x:t>
         </x:is>
       </x:c>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rbec36a70886a4f0f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rdf9474db0f014457"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -2613,58 +2613,6 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>GO338022654</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>IVONETE PAULINA DE SOUSA LINS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44058</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62999615154</x:t>
-        </x:is>
-      </x:c>
-      <x:c/>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JUBINAN BEZERRA GUEDES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74505011</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
           <x:t>GO338023843</x:t>
         </x:is>
       </x:c>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rfb9f15b9b5f041f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R62c08797cd7548e7"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1360,7 +1360,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c s="9">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c t="inlineStr">
         <x:is>
@@ -1516,7 +1516,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c s="9">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c t="inlineStr">
         <x:is>
@@ -5892,7 +5892,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c s="9">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c t="inlineStr">
         <x:is>
@@ -27729,16 +27729,16 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>GO338049663</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LENISA LIMA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45012</x:v>
+          <x:t>GO338053183</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LENI GABRIELLI DIAS BARRETO BRASIL</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45145</x:v>
       </x:c>
       <x:c t="inlineStr">
         <x:is>
@@ -27747,12 +27747,684 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>62994946871</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LENISALIMADASILVA@GMAIL.COM</x:t>
+          <x:t>62991491748</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LENNYBRAZIL@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>PALOMA LEMOS COSTA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74720180</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492009205</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LEONELA PEREIRA SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61998128506</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LEONELAPSANTOS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>THAMIRES FERREIRA DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73752411</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338050110</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LINHANDERSON RAFAEL VERA DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45029</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62991716509</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LIANDERSONVERA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>STEFANY SILVA CAMPOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74693027</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338048809</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LIGIA FERREIRA MAIA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44984</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62992708789</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LIGIAFERREIRA01@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDILEUSA APARECIDA DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74367635</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338019843</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LILIAM APARECIDA PEREIRA DE SOUSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>43964</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62992566704</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LILIAMSOUSAA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LILIAN COELHO REZENDE DOURADO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74494082</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551000314</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LILIAN RODRIGUES DE SOUZA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44736</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64993183738</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LILIANE44@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JUSLAINE MARQUES DA SILVA DE CARLI</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75690000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551005062</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LILIANE KAROLINE DA CONCEIÇÃO RIBEIRO SOARES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45048</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992387056</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LILIANEGAUGE12@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLÍNICA AMOR SAÚDE</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75689740</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492004539</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LILIANA BISPO TELES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44481</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61996634774</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LILIANETELES@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ERICKA RODRIGUES DE SOUZA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73802451</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338033625</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LINDALVA MARIA BERNARDES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44435</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62999243583</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LINDAHABERNARDES@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LETICIA DOS SANTOS MIRANDA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75350000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338042276</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LINDALVA MARIA DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44742</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62991738850</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LINDALVADASILVA@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JUBINAN BEZERRA GUEDES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74477186</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492012732</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LINKIA PEREIRA LOPES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44922</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61996013376</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LINKIEREIRAOPES@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RAFAELA ALVES LINS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73802215</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338055835</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LEANDRO ALVES PINTO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45236</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62993215923</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LOEANDRO@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LEONEIDE FERNANDES DE ALENCAR</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75254695</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338055113</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LOIDE PEREIRA DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45206</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62991024151</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LOIDEPEREIRADOSSANTOS@GMAIL.COM</x:t>
         </x:is>
       </x:c>
       <x:c t="inlineStr">
@@ -27768,29 +28440,813 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>CEP 74525050</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338053183</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LENI GABRIELLI DIAS BARRETO BRASIL</x:t>
+          <x:t>CEP 74510040</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492002842</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LOISLENE FRANCISCA DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45180</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61996006540</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LOISLENEFRANCISCA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>KAMILA GABRIELE CARDOSO CORTELINE</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73808310</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338056289</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LORENA MARTINS BANDEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45251</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62999128789</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LORENA.MAMYBAND@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARIA DO SOCORRO DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74210030</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338051129</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LORENA SOUSA AMORIM</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45068</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62992815429</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LORENASOUSAAMORIM@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GABRIELA NUNES DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74573140</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338054104</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LORRAINE MEDEIROS  FERREIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45175</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62984541037</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LORRAINEMEDEIROS490@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARIA DO SOCORRO DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74593210</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338044580</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LORRAYNE CARLA DOS SANTOS MORAIS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44819</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62984847264</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LORRAYNECARLA93@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ARIELA DOS SANTOS RODRIGUES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74675050</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338035422</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>SOLANGE ANGÉLICA DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44499</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62982133719</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LP_LEAFAR@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDRE ALVES DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74675530</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338056494</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCILENE DA SILVA VIANA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45255</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62981195507</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LU.SVIANA1805@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GABRIELA NUNES DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74394240</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492007957</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCAS SANTARÉM COSTA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44657</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61996776665</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCASSC@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCILENE MOREIRA SODRE</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73801480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551007037</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCELY APARECIDA DE FREITAS SALES OLIVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45217</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992390974</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCELYAPARECIDA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLÍNICA AMOR SAÚDE</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75680518</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492004308</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCIANA DENIZ ROSA DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44468</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62996841837</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCIANADENIZ@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>KRYSS LORRAYNNE RODRIGUES DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73808740</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338055453</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCIANA DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45219</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62981020785</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCIANASANTOSSS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LANNA RAYSSA LOPES SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74805100</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492007691</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCIENE ALVES VIDAL</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44645</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61996688564</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCIENEAV@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DEIBIA PEREIRA DE OLIVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73807660</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492014716</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCIMAR ALVES DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45118</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61996336133</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCIMARALVESSILVA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RAFAELA ALVES LINS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73813848</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338055344</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCINEIA BERTOLINO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45216</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62993280224</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCINEIABERTOLINO@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAYANE KATELLY BRITO NASCIMENTO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74510040</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492004268</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCIVANIA FRANCISCO DOS SANTOS</x:t>
         </x:is>
       </x:c>
       <x:c s="8">
@@ -27798,33 +29254,89 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991491748</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LENNYBRAZIL@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>PALOMA LEMOS COSTA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74720180</x:t>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61998387351</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCIVANIAFRANCISCO@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARCELINO ORLEY DO NASCIMENTO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73805271</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338051326</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUDMILLA SOUZA FERREIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45075</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>66999665453</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUDIMILLAS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JUBINAN BEZERRA GUEDES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74375280</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -27841,16 +29353,16 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>GO492009205</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LEONELA PEREIRA SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44722</x:v>
+          <x:t>GO492009884</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUDMILA VICTÓRIA NUNES DA SILVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45231</x:v>
       </x:c>
       <x:c t="inlineStr">
         <x:is>
@@ -27859,54 +29371,54 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>61998128506</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LEONELAPSANTOS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>THAMIRES FERREIRA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73752411</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338050110</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LINHANDERSON RAFAEL VERA DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45029</x:v>
+          <x:t>61993060751</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUDMILAVICTORIANUNES0@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUDMILA VICTÓRIA NUNES DA SILVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73801480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338016673</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUDMILLA DA SILVA SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>43843</x:v>
       </x:c>
       <x:c t="inlineStr">
         <x:is>
@@ -27915,241 +29427,17 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>62991716509</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LIANDERSONVERA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>STEFANY SILVA CAMPOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74693027</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338048809</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LIGIA FERREIRA MAIA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44984</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62992708789</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LIGIAFERREIRA01@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDILEUSA APARECIDA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74367635</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338019843</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LILIAM APARECIDA PEREIRA DE SOUSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>43964</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62992566704</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LILIAMSOUSAA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LILIAN COELHO REZENDE DOURADO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74494082</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551000314</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LILIAN RODRIGUES DE SOUZA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44736</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64993183738</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LILIANE44@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JUSLAINE MARQUES DA SILVA DE CARLI</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75690000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551005062</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LILIANE KAROLINE DA CONCEIÇÃO RIBEIRO SOARES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45048</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992387056</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LILIANEGAUGE12@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLÍNICA AMOR SAÚDE</x:t>
+          <x:t>62991398427</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUDMILLAS415@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
         </x:is>
       </x:c>
       <x:c s="9">
@@ -28157,1350 +29445,6 @@
       </x:c>
       <x:c s="9">
         <x:v>11</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75689740</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492004539</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LILIANA BISPO TELES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44481</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61996634774</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LILIANETELES@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ERICKA RODRIGUES DE SOUZA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73802451</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338033625</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LINDALVA MARIA BERNARDES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44435</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62999243583</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LINDAHABERNARDES@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LETICIA DOS SANTOS MIRANDA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75350000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338042276</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LINDALVA MARIA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44742</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991738850</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LINDALVADASILVA@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JUBINAN BEZERRA GUEDES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74477186</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492012732</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LINKIA PEREIRA LOPES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44922</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61996013376</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LINKIEREIRAOPES@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RAFAELA ALVES LINS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73802215</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338055835</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LEANDRO ALVES PINTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45236</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62993215923</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LOEANDRO@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LEONEIDE FERNANDES DE ALENCAR</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75254695</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338055113</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LOIDE PEREIRA DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45206</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991024151</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LOIDEPEREIRADOSSANTOS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ERIKA BARBOSA SANTOS SCHMIDT</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74510040</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492002842</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LOISLENE FRANCISCA DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45180</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61996006540</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LOISLENEFRANCISCA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>KAMILA GABRIELE CARDOSO CORTELINE</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73808310</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338056289</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LORENA MARTINS BANDEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45251</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62999128789</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LORENA.MAMYBAND@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA DO SOCORRO DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74210030</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338051129</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LORENA SOUSA AMORIM</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45068</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62992815429</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LORENASOUSAAMORIM@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GABRIELA NUNES DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74573140</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338054104</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LORRAINE MEDEIROS  FERREIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45175</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62984541037</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LORRAINEMEDEIROS490@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA DO SOCORRO DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74593210</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338044580</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LORRAYNE CARLA DOS SANTOS MORAIS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44819</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62984847264</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LORRAYNECARLA93@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ARIELA DOS SANTOS RODRIGUES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74675050</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338035422</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SOLANGE ANGÉLICA DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44499</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62982133719</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LP_LEAFAR@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDRE ALVES DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74675530</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338056494</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCILENE DA SILVA VIANA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45255</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62981195507</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LU.SVIANA1805@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GABRIELA NUNES DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74394240</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492007957</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCAS SANTARÉM COSTA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44657</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61996776665</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCASSC@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCILENE MOREIRA SODRE</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73801480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551007037</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCELY APARECIDA DE FREITAS SALES OLIVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45217</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992390974</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCELYAPARECIDA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLÍNICA AMOR SAÚDE</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75680518</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492004308</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCIANA DENIZ ROSA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44468</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62996841837</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCIANADENIZ@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>KRYSS LORRAYNNE RODRIGUES DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73808740</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338055453</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCIANA DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45219</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62981020785</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCIANASANTOSSS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LANNA RAYSSA LOPES SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74805100</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492007691</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCIENE ALVES VIDAL</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44645</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61996688564</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCIENEAV@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DEIBIA PEREIRA DE OLIVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73807660</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492014716</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCIMAR ALVES DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45118</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61996336133</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCIMARALVESSILVA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RAFAELA ALVES LINS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73813848</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338055344</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCINEIA BERTOLINO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45216</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62993280224</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCINEIABERTOLINO@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAYANE KATELLY BRITO NASCIMENTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74510040</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492004268</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCIVANIA FRANCISCO DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45145</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61998387351</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCIVANIAFRANCISCO@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARCELINO ORLEY DO NASCIMENTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73805271</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338051326</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUDMILLA SOUZA FERREIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45075</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>66999665453</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUDIMILLAS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JUBINAN BEZERRA GUEDES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74375280</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492009884</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUDMILA VICTÓRIA NUNES DA SILVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45231</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61993060751</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUDMILAVICTORIANUNES0@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUDMILA VICTÓRIA NUNES DA SILVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73801480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338016673</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUDMILLA DA SILVA SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>43843</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991398427</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUDMILLAS415@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>12</x:v>
       </x:c>
       <x:c t="inlineStr">
         <x:is>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R11f12452012243c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rf7639cb44c554079"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R6d67a3a01f2949af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Ra2942934dd8d40f9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -2313,58 +2313,6 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>GO338012227</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JOEL SOARES DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>43671</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CAIXA ECONOMICA FEDERAL</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62995605452</x:t>
-        </x:is>
-      </x:c>
-      <x:c/>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAYANE KATELLY BRITO NASCIMENTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74063321</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
           <x:t>GO338012477</x:t>
         </x:is>
       </x:c>
@@ -8732,40 +8680,320 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338049317</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ALINE PEREIRA DIAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44999</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62969906044</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ALINNEDIASPEREIRA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>SILVIA HELENA COELHO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74430480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338055626</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ALLISSON HENRIQUE FERREIRA BRAZ</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45226</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62981811969</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ALL1SSONBR6Z@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74430310</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338057432</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>PEDRO AFONSO ALLYEN FILHO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45290</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62981865026</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ALLYENSTER@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74655370</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338041939</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ALZIRA PEREIRA DE ALMEIDA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44732</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62999169905</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ALZIRSAPEREORA@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ITANIRA DE JESUS SENA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74394410</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
           <x:t>CALDAS NOVAS</x:t>
         </x:is>
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>GO551006258</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ALINE DAS CHAGAS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45148</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992832048</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ALINECG@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AMANDA CRISTINA ARAUJO DE CASTRO</x:t>
+          <x:t>GO551004660</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AMANAIARA GATINHO LIMA SOARES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45014</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64999086586</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AMANAIARAGATINHOLIMASOARES@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDUARDO RODRIGUES ANDRADE</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75690000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338057840</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ADEMIR GOMES FIGUEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45303</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62991009275</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AMANDACRYS.SILVA.AK@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DHENNYFER ALVES LIMA</x:t>
         </x:is>
       </x:c>
       <x:c s="9">
@@ -8776,29 +9004,1761 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>CEP 75689246</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338049317</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ALINE PEREIRA DIAS</x:t>
+          <x:t>CEP 74594019</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338054529</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AMANDA KAROLYNE DA SILVA MOURA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45189</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62985280101</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AMANDAKMOURA22@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LANNA RAYSSA LOPES SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74370829</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>SP INTERIOR</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>SAO JOAO DA BOA VISTA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>SP577000407</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AMANDA COSTA CIPRIANO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45307</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>19998281187</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AMANDITACIPRIANO@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDREZA QUINZANI DE MELO MOURTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 13879899</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338017886</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDILCE PEREIRA DE AMORIM</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>43893</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62999357139</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AMORIM321@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LIDIA CARLA DE SOUSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74682123</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338026117</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DIEGO SANTOS AMORIM</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44171</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c/>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AMORIMDIEGOSANTOS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JUBINAN BEZERRA GUEDES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74510040</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338049954</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA MARIA CAMPOS VIEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45022</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62999453711</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANAAMARIACAMPOS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELAINE VERISSIMO SALOME DE ALMEIDA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74593215</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551000261</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA CELIA DE SOUSA LIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44735</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64993266394</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANACELIA98@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RAIMUNDO FRANCISCO NASCIMENTO DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75680001</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551007547</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA CLAUDIA DE SOUZA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45265</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992553509</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANACLAUDIA63838@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUIGY PEREIRA MAURO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75688085</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551006154</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANNA CLAÚDIA DOS SANTOS ERNESTO MEDEIROS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45140</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62995284270</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANACLAUDIABNZ@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ISABELLA BRASILINO PINHEIRO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75043045</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492013529</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA KAROLINE MEIRELES MEDEIROS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44993</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61991292354</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANAKAROLINEMEIDEIRESLES@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARLENE PEREIRA DOS SANTOS TORRES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73801480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551004996</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA LARA ROSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45040</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992359484</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANALARAPEDRO5@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLÍNICA AMOR SAÚDE</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75690000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492008325</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA LURDES DE OLIVEIRA ARAUJO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44678</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61992144788</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANALURDES366@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>BIANCA GONÇALVES DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73360401</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551004292</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA MARIA DOS SANTOS SOUSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44993</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64993307373</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANAMARIA.S.S.GUIMARAES@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUIGY PEREIRA MAURO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75690000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338025050</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA MARIA DA SILVA MENEZES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44138</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62991082704</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANAMARIADASILVAMENEZES98@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELIOMAR RAMOS PEIXOTO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74580710</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551007970</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AMANDA LAIANY SOUZA DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45320</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64993070990</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANANDAGOIANIA5@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELOIZA TAILINY SOUZA DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75680534</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551008005</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA PAULA GODOI</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45321</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64981135569</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANAPAULA025@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LORENA NOGUEIRA DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75682148</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338053699</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA PAULA RODRIGUES BATISTA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45161</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62999414749</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANAPAULAGSR10@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GERENALDO DOS SANTOS BOMFIM</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75260381</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492015374</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA PAULA SOUZA MEDEIROS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45188</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62998051488</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANAPS3@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JULIANA COUTO NOGUEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73801480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338053680</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA RAIMUNDA FERREIRA DIAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45160</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62994575861</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANARAIMUNDA01@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RAYANE DA CONCEIÇÃO GONÇALVES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74550410</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338056065</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA TEREZA LEMES BORGES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45243</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62984735231</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANATEREZALEMES@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LEONEIDE FERNANDES DE ALENCAR</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74968475</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338053658</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>BEATRIZ OLIVEIRA DE AGUIAR</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45159</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62991596218</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDERSON.3105GOIAS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GERENALDO DOS SANTOS BOMFIM</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74510020</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338056466</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDERSON COSTA SOUSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45254</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DISCOVER</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62984181620</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDERSONCOSTA131A@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JUBINAN BEZERRA GUEDES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74370240</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>SP INTERIOR</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>SAO JOAO DA BOA VISTA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>SP577000494</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDREA BORGES DE SOUZA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45315</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>19995074595</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDREABORGESDESOUZA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GRECIANE BRAZ CAMARGO GONCALVES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 13876252</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338042721</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDREA GOMES DA SILVA ARANTES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45138</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62983390634</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDREAGOMESS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CECILIA MARTINS DE JESUS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 76730000</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492012451</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDREARA DE ARAUJO MACEDO ARAGÃO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45301</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>BOLETO SANTANDER</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61991019956</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDREARAARAUJOMACEDO@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARLENE PEREIRA DOS SANTOS TORRES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73801480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551007529</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDREIA ALVES DE AQUINO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45261</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64993208489</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDREIA.AQUINO@HORMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GIOVANNA CRYSTYNAH SOBRINHO MIRANDA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75680053</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338034088</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JOANA DARC ROSA DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44453</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62994901427</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDREIA.R.SANTOS0782@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74323020</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338054435</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDRE RODRIGUES DE OLIVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45185</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62994232112</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDRERODRIGUESDEOL@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>PAULO SERGIO OLIVEIRA DE  JESUS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75384203</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338037949</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FRANCISCO CARLOS DE SOUSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44592</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62999845167</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANDRESSASOUSA.ARQUITETA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JUBINAN BEZERRA GUEDES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74423160</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492010762</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANGELA DIONISIO NUNES DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44791</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>81983204485</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANGELADIONISIO@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA CRISTINA BARBOSA OLIVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73750110</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338046523</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANGELA DIVINA ALVES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44888</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62994297928</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANGELADIVINA12@HOTMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LANNA RAYSSA LOPES SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74565320</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338048588</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANNA CRISTINA DE ANCHIETA DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44977</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62993181756</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANNACRISTINA2234@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DAYANE KATELLY BRITO NASCIMENTO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74820290</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492013574</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTONIO GONÇALVES DO NASCIMENTO</x:t>
         </x:is>
       </x:c>
       <x:c s="8">
@@ -8806,17 +10766,241 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62969906044</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ALINNEDIASPEREIRA@GMAIL.COM</x:t>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62998087734</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTNONIOGPNCANASCI@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CARTAO DE FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73801480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338053198</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTONIA DA SILVA SOUSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45146</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62991482228</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTONIADSSS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>STEFANY SILVA CAMPOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74590770</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338055674</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTONIA ENEDINA SILVA VISGUEIRO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45229</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>91991234994</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTONIAOLIVEIRA.AOP@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JUBINAN BEZERRA GUEDES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74373220</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338058324</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTONIELLE VIANA DA PAIXÃO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45320</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62999628561</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTONIELLEVIANA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARIA DO SOCORRO DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74590150</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338033794</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTONIO CARDOSO DOS SANTOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45308</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62991284465</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTONIOCARDOSOA@GMAIL.COM</x:t>
         </x:is>
       </x:c>
       <x:c t="inlineStr">
@@ -8828,51 +11012,163 @@
         <x:v>6</x:v>
       </x:c>
       <x:c s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74430480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338055626</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ALLISSON HENRIQUE FERREIRA BRAZ</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45226</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62981811969</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ALL1SSONBR6Z@GMAIL.COM</x:t>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74494540</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CALDAS NOVAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO551005118</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTONIO LIMA DE MACEDO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45050</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>64992846601</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTONIOLM1@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FELIPE CAMPOS BATISTA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 75687802</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492012222</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>APARECIDA MARIANA DE FREITAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44875</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CELG</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61996846899</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>APARECIDAMARIANA@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ERICKA RODRIGUES DE SOUZA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73801480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338046851</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ARIANE STEFANNY RODRIGUES CARVALHO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44900</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62991616427</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ARIANETETE71@GMAIL.COM</x:t>
         </x:is>
       </x:c>
       <x:c t="inlineStr">
@@ -8884,51 +11180,107 @@
         <x:v>6</x:v>
       </x:c>
       <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74430310</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338057432</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>PEDRO AFONSO ALLYEN FILHO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45290</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62981865026</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ALLYENSTER@GMAIL.COM</x:t>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74075220</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338014209</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>KHESIA ARIELE OLIVEIRA SANTOS ARAUJO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>43740</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62992426297</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>arielegabriellydiogenes@gmail.com</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WELLINGTON PEREIRA DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74573300</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338053721</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ROSELINE POVOAS DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45161</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62981397486</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AS1368682@GMAIL.COM</x:t>
         </x:is>
       </x:c>
       <x:c t="inlineStr">
@@ -8944,52 +11296,108 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>CEP 74655370</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338041939</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ALZIRA PEREIRA DE ALMEIDA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44732</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62999169905</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ALZIRSAPEREORA@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ITANIRA DE JESUS SENA</x:t>
+          <x:t>CEP 74543250</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338058233</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTONIO JOSE DO NASCIMENTO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45316</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62982817077</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ASD62995004006@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74580360</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492015353</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARIA DO CARMO DOS SANTOS OLIVEIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45184</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61991928263</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ASDFV@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARIA SONIA ALVES DA SILVA</x:t>
         </x:is>
       </x:c>
       <x:c s="9">
@@ -9000,108 +11408,52 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>CEP 74394410</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551004660</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AMANAIARA GATINHO LIMA SOARES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45014</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64999086586</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AMANAIARAGATINHOLIMASOARES@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDUARDO RODRIGUES ANDRADE</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75690000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338057840</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ADEMIR GOMES FIGUEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45303</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991009275</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AMANDACRYS.SILVA.AK@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DHENNYFER ALVES LIMA</x:t>
+          <x:t>CEP 73801480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492016012</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AUGUSTO DOMICIANO PEREIRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>44778</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MASTERCARD</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>61992199931</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AUGUSTODERIS@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CARTAO DE FORMOSA</x:t>
         </x:is>
       </x:c>
       <x:c s="9">
@@ -9112,33 +11464,89 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>CEP 74594019</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338054529</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AMANDA KAROLYNE DA SILVA MOURA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45189</x:v>
+          <x:t>CEP 73801480</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO338050056</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AUREA MEIRE ALVES SOUSA RODRIGUES</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45027</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>BOLETO BRADESCO</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62981843994</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AUREAMEIREALVESSOUSARODRIGUES@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARIA DO SOCORRO DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74255050</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FORMOSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GO492015670</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AURELINA LUIZ PINTO</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45225</x:v>
       </x:c>
       <x:c t="inlineStr">
         <x:is>
@@ -9147,416 +11555,28 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>62985280101</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AMANDAKMOURA22@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LANNA RAYSSA LOPES SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74370829</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SP INTERIOR</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SAO JOAO DA BOA VISTA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SP577000407</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AMANDA COSTA CIPRIANO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45307</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>19998281187</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AMANDITACIPRIANO@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDREZA QUINZANI DE MELO MOURTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 13879899</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338017886</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDILCE PEREIRA DE AMORIM</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>43893</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62999357139</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AMORIM321@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LIDIA CARLA DE SOUSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74682123</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338026117</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DIEGO SANTOS AMORIM</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44171</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c/>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AMORIMDIEGOSANTOS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JUBINAN BEZERRA GUEDES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74510040</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338049954</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA MARIA CAMPOS VIEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45022</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62999453711</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANAAMARIACAMPOS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELAINE VERISSIMO SALOME DE ALMEIDA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74593215</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551000261</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA CELIA DE SOUSA LIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44735</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64993266394</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANACELIA98@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RAIMUNDO FRANCISCO NASCIMENTO DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75680001</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551007547</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA CLAUDIA DE SOUZA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45265</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992553509</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANACLAUDIA63838@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUIGY PEREIRA MAURO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75688085</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551006154</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANNA CLAÚDIA DOS SANTOS ERNESTO MEDEIROS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45140</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62995284270</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANACLAUDIABNZ@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ISABELLA BRASILINO PINHEIRO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75043045</x:t>
+          <x:t>61996967605</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>AURELINALPINT@GMAIL.COM</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>SANDIE ATAIDES CHAGAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 73813020</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -9573,2134 +11593,6 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>GO492013529</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA KAROLINE MEIRELES MEDEIROS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44993</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61991292354</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANAKAROLINEMEIDEIRESLES@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARLENE PEREIRA DOS SANTOS TORRES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73801480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551004996</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA LARA ROSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45040</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992359484</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANALARAPEDRO5@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLÍNICA AMOR SAÚDE</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75690000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492008325</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA LURDES DE OLIVEIRA ARAUJO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44678</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61992144788</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANALURDES366@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>BIANCA GONÇALVES DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73360401</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551004292</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA MARIA DOS SANTOS SOUSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44993</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64993307373</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANAMARIA.S.S.GUIMARAES@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUIGY PEREIRA MAURO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75690000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338025050</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA MARIA DA SILVA MENEZES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44138</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991082704</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANAMARIADASILVAMENEZES98@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELIOMAR RAMOS PEIXOTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74580710</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551007970</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AMANDA LAIANY SOUZA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45320</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64993070990</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANANDAGOIANIA5@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELOIZA TAILINY SOUZA DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75680534</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551008005</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA PAULA GODOI</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45321</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64981135569</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANAPAULA025@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LORENA NOGUEIRA DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75682148</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338053699</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA PAULA RODRIGUES BATISTA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45161</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62999414749</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANAPAULAGSR10@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GERENALDO DOS SANTOS BOMFIM</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75260381</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492015374</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA PAULA SOUZA MEDEIROS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45188</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62998051488</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANAPS3@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JULIANA COUTO NOGUEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73801480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338053680</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA RAIMUNDA FERREIRA DIAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45160</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62994575861</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANARAIMUNDA01@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RAYANE DA CONCEIÇÃO GONÇALVES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74550410</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338056065</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA TEREZA LEMES BORGES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45243</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62984735231</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANATEREZALEMES@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LEONEIDE FERNANDES DE ALENCAR</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74968475</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338053658</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>BEATRIZ OLIVEIRA DE AGUIAR</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45159</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991596218</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDERSON.3105GOIAS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GERENALDO DOS SANTOS BOMFIM</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74510020</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338056466</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDERSON COSTA SOUSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45254</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DISCOVER</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62984181620</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDERSONCOSTA131A@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JUBINAN BEZERRA GUEDES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74370240</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SP INTERIOR</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SAO JOAO DA BOA VISTA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SP577000494</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDREA BORGES DE SOUZA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45315</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>19995074595</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDREABORGESDESOUZA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GRECIANE BRAZ CAMARGO GONCALVES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 13876252</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338042721</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDREA GOMES DA SILVA ARANTES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45138</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62983390634</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDREAGOMESS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CECILIA MARTINS DE JESUS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 76730000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492012451</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDREARA DE ARAUJO MACEDO ARAGÃO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45301</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>BOLETO SANTANDER</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61991019956</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDREARAARAUJOMACEDO@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARLENE PEREIRA DOS SANTOS TORRES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73801480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551007529</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDREIA ALVES DE AQUINO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45261</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64993208489</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDREIA.AQUINO@HORMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GIOVANNA CRYSTYNAH SOBRINHO MIRANDA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75680053</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338034088</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JOANA DARC ROSA DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44453</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62994901427</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDREIA.R.SANTOS0782@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74323020</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338054435</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDRE RODRIGUES DE OLIVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45185</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62994232112</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDRERODRIGUESDEOL@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>PAULO SERGIO OLIVEIRA DE  JESUS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75384203</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338037949</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FRANCISCO CARLOS DE SOUSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44592</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62999845167</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANDRESSASOUSA.ARQUITETA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JUBINAN BEZERRA GUEDES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74423160</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492010762</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANGELA DIONISIO NUNES DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44791</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>81983204485</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANGELADIONISIO@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA CRISTINA BARBOSA OLIVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73750110</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338046523</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANGELA DIVINA ALVES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44888</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62994297928</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANGELADIVINA12@HOTMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LANNA RAYSSA LOPES SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74565320</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338048588</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANNA CRISTINA DE ANCHIETA DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44977</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62993181756</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANNACRISTINA2234@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DAYANE KATELLY BRITO NASCIMENTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74820290</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492013574</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIO GONÇALVES DO NASCIMENTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44999</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62998087734</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTNONIOGPNCANASCI@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CARTAO DE FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73801480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338053198</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIA DA SILVA SOUSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45146</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991482228</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIADSSS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>STEFANY SILVA CAMPOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74590770</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338055674</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIA ENEDINA SILVA VISGUEIRO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45229</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>91991234994</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIAOLIVEIRA.AOP@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JUBINAN BEZERRA GUEDES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74373220</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338058324</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIELLE VIANA DA PAIXÃO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45320</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62999628561</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIELLEVIANA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA DO SOCORRO DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74590150</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338033794</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIO CARDOSO DOS SANTOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45308</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991284465</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIOCARDOSOA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SILVIA HELENA COELHO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74494540</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551005118</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIO LIMA DE MACEDO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45050</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64992846601</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIOLM1@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FELIPE CAMPOS BATISTA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75687802</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492012222</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>APARECIDA MARIANA DE FREITAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44875</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CELG</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61996846899</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>APARECIDAMARIANA@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ERICKA RODRIGUES DE SOUZA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73801480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338046851</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ARIANE STEFANNY RODRIGUES CARVALHO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44900</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62991616427</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ARIANETETE71@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74075220</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338014209</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>KHESIA ARIELE OLIVEIRA SANTOS ARAUJO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>43740</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62992426297</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>arielegabriellydiogenes@gmail.com</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>WELLINGTON PEREIRA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74573300</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338053721</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ROSELINE POVOAS DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45161</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62981397486</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AS1368682@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74543250</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338058233</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIO JOSE DO NASCIMENTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45316</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62982817077</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ASD62995004006@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>WEB SITE - CARTAO DE TODOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74580360</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492015353</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA DO CARMO DOS SANTOS OLIVEIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45184</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61991928263</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ASDFV@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA SONIA ALVES DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73801480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492016012</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AUGUSTO DOMICIANO PEREIRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44778</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61992199931</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AUGUSTODERIS@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CARTAO DE FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73801480</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338050056</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AUREA MEIRE ALVES SOUSA RODRIGUES</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45027</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>BOLETO BRADESCO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62981843994</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AUREAMEIREALVESSOUSARODRIGUES@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA DO SOCORRO DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74255050</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492015670</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AURELINA LUIZ PINTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45225</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61996967605</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>AURELINALPINT@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SANDIE ATAIDES CHAGAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73813020</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
           <x:t>GO492015107</x:t>
         </x:is>
       </x:c>
@@ -11741,62 +11633,6 @@
       <x:c t="inlineStr">
         <x:is>
           <x:t>CEP 73801971</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GOIANIA CENTRO NORTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO338033681</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA BETANIA DE NOVAIS SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44438</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62986022386</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>BETANIAMARIA12@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SILVIA HELENA COELHO</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 74550330</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Ra2942934dd8d40f9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rd83d8cd53a904fc6"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -5547,7 +5547,7 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>61984612369</x:t>
+          <x:t>62981162557</x:t>
         </x:is>
       </x:c>
       <x:c/>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R7daf7117d67d4d75"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R136a0b1481774335"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -29230,7 +29230,7 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>LORRANY KRYSTINE BARBOSA DE SOUZA</x:t>
+          <x:t>LORRANY KRISTINE BARBOSA DE SOUZA</x:t>
         </x:is>
       </x:c>
       <x:c s="8">

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R4551bc15900a41cc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R6f6b817f4e824183"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -40092,62 +40092,6 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>FORMOSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO492007807</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>TIENE GOMES DE LIMA ABREU</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44650</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>61998636361</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>TIENEFR@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LARISSA RITIELLY FERNANDES DE SOUZA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 73802464</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
           <x:t>GOIANIA CENTRO NORTE</x:t>
         </x:is>
       </x:c>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R449ab8e7b82c45b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R5e6fda6e53f24ad3"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R5e6fda6e53f24ad3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R29947f5d74d74cd3"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R29947f5d74d74cd3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R1abcfdf42c1e40b0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -19288,62 +19288,6 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551004904</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GARDENIA LIMA DA SILVA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>45033</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64993189052</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GARDENIAEKASSIOLIMAALVES@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JÉSSICA POLIANA DE ABREU</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75690000</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
           <x:t>GOIANIA CENTRO NORTE</x:t>
         </x:is>
       </x:c>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R85cc3cde9f924df3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R734f8d2a181847ce"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10772,7 +10772,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c s="9">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c t="inlineStr">
         <x:is>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rd86b21adb98b4d3c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rfd1c0b35e700453b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rfd1c0b35e700453b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R176b0fca738c4780"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/data (2).xlsx
+++ b/data (2).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rbf6ef279e8ff4320"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R9e505909147f4b39"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -2705,6 +2705,62 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
+          <x:t>GO338025225</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>THAIS PEREIRA DE SOUSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45127</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>62981695421</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t/>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GABRIELA NUNES DA SILVA</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="9">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEP 74645190</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CENTRO OESTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GOIANIA CENTRO NORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
           <x:t>GO338028636</x:t>
         </x:is>
       </x:c>
@@ -14561,62 +14617,6 @@
       <x:c t="inlineStr">
         <x:is>
           <x:t>CEP 75686339</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CENTRO OESTE</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CALDAS NOVAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GO551002383</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MANOEL APARECIDO GONCALVES DE MOURA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="8">
-        <x:v>44839</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MASTERCARD</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>64993322182</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MANOELAPARECIDO098@GMAIL.COM</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA EDUARDA PIRES DE LIMA</x:t>
-        </x:is>
-      </x:c>
-      <x:c s="9">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c s="9">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEP 75689231</x:t>
         </x:is>
       </x:c>
     </x:row>
